--- a/etl/data/team_venue_info.xlsx
+++ b/etl/data/team_venue_info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hunte\Documents\Projects\api-sports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hunte\Documents\Projects\github-repos\asa_and_forks\asa\etl\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F7DFBD7-FFB8-4EA6-9337-DA400BEF0069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C25130-B1B4-4A9E-9288-B42F7D9AC00B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42180" yWindow="7320" windowWidth="29040" windowHeight="15720" xr2:uid="{4DE514D5-098E-4250-809A-53ED6767566D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28320" xr2:uid="{4DE514D5-098E-4250-809A-53ED6767566D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="637">
   <si>
     <t>MLB</t>
   </si>
@@ -995,9 +995,6 @@
     <t>Utah Jazz</t>
   </si>
   <si>
-    <t>Vivint Smart Home Arena</t>
-  </si>
-  <si>
     <t>Salt Lake City, Utah</t>
   </si>
   <si>
@@ -1908,9 +1905,6 @@
   </si>
   <si>
     <t>Delta Center</t>
-  </si>
-  <si>
-    <t>301 S Temple, Salt Lake City, UT 84101</t>
   </si>
   <si>
     <t>metro_area</t>
@@ -2333,8 +2327,8 @@
   <dimension ref="A1:J155"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J125" sqref="J125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2352,34 +2346,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>611</v>
+      </c>
+      <c r="B1" t="s">
         <v>612</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>613</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>614</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>615</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>616</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>623</v>
+      </c>
+      <c r="H1" t="s">
+        <v>625</v>
+      </c>
+      <c r="I1" t="s">
         <v>617</v>
       </c>
-      <c r="G1" t="s">
-        <v>625</v>
-      </c>
-      <c r="H1" t="s">
-        <v>627</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>618</v>
-      </c>
-      <c r="J1" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -2405,13 +2399,13 @@
         <v>140</v>
       </c>
       <c r="H2" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I2" t="s">
         <v>6</v>
       </c>
       <c r="J2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -2434,17 +2428,17 @@
         <v>11</v>
       </c>
       <c r="G3" t="str">
-        <f>D3</f>
+        <f t="shared" ref="G3:G9" si="0">D3</f>
         <v>Atlanta, Georgia</v>
       </c>
       <c r="H3" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I3" t="s">
         <v>6</v>
       </c>
       <c r="J3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -2467,25 +2461,25 @@
         <v>11</v>
       </c>
       <c r="G4" t="str">
-        <f>D4</f>
+        <f t="shared" si="0"/>
         <v>Atlanta, Georgia</v>
       </c>
       <c r="H4" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="I4" t="s">
         <v>6</v>
       </c>
       <c r="J4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C5" t="s">
         <v>139</v>
@@ -2500,17 +2494,17 @@
         <v>11</v>
       </c>
       <c r="G5" t="str">
-        <f>D5</f>
+        <f t="shared" si="0"/>
         <v>Atlanta, Georgia</v>
       </c>
       <c r="H5" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="I5" t="s">
         <v>6</v>
       </c>
       <c r="J5" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -2533,17 +2527,17 @@
         <v>52</v>
       </c>
       <c r="G6" t="str">
-        <f>D6</f>
+        <f t="shared" si="0"/>
         <v>Austin, Texas</v>
       </c>
       <c r="H6" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I6" t="s">
         <v>6</v>
       </c>
       <c r="J6" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -2566,28 +2560,28 @@
         <v>16</v>
       </c>
       <c r="G7" t="str">
-        <f>D7</f>
+        <f t="shared" si="0"/>
         <v>Baltimore, Maryland</v>
       </c>
       <c r="H7" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I7" t="s">
         <v>6</v>
       </c>
       <c r="J7" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B8" t="s">
+        <v>329</v>
+      </c>
+      <c r="C8" t="s">
         <v>330</v>
-      </c>
-      <c r="C8" t="s">
-        <v>331</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
@@ -2599,17 +2593,17 @@
         <v>16</v>
       </c>
       <c r="G8" t="str">
-        <f>D8</f>
+        <f t="shared" si="0"/>
         <v>Baltimore, Maryland</v>
       </c>
       <c r="H8" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="I8" t="s">
         <v>6</v>
       </c>
       <c r="J8" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -2632,17 +2626,17 @@
         <v>21</v>
       </c>
       <c r="G9" t="str">
-        <f>D9</f>
+        <f t="shared" si="0"/>
         <v>Boston, Massachusetts</v>
       </c>
       <c r="H9" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I9" t="s">
         <v>6</v>
       </c>
       <c r="J9" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -2668,13 +2662,13 @@
         <v>19</v>
       </c>
       <c r="H10" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I10" t="s">
         <v>6</v>
       </c>
       <c r="J10" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -2701,21 +2695,21 @@
         <v>Boston, Massachusetts</v>
       </c>
       <c r="H11" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="I11" t="s">
         <v>6</v>
       </c>
       <c r="J11" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B12" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C12" t="s">
         <v>195</v>
@@ -2733,21 +2727,21 @@
         <v>19</v>
       </c>
       <c r="H12" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="I12" t="s">
         <v>6</v>
       </c>
       <c r="J12" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C13" t="s">
         <v>245</v>
@@ -2766,111 +2760,111 @@
         <v>Boston, Massachusetts</v>
       </c>
       <c r="H13" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="I13" t="s">
         <v>6</v>
       </c>
       <c r="J13" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B14" t="s">
+        <v>331</v>
+      </c>
+      <c r="C14" t="s">
         <v>332</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>333</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>334</v>
-      </c>
-      <c r="E14" t="s">
-        <v>335</v>
       </c>
       <c r="F14" t="s">
         <v>84</v>
       </c>
       <c r="G14" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H14" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="I14" t="s">
         <v>6</v>
       </c>
       <c r="J14" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B15" t="s">
+        <v>409</v>
+      </c>
+      <c r="C15" t="s">
         <v>410</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>411</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>412</v>
-      </c>
-      <c r="E15" t="s">
-        <v>413</v>
       </c>
       <c r="F15" t="s">
         <v>84</v>
       </c>
       <c r="G15" t="str">
-        <f>D15</f>
+        <f t="shared" ref="G15:G33" si="1">D15</f>
         <v>Buffalo, New York</v>
       </c>
       <c r="H15" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="I15" t="s">
         <v>6</v>
       </c>
       <c r="J15" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B16" t="s">
+        <v>413</v>
+      </c>
+      <c r="C16" t="s">
         <v>414</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>415</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>416</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>417</v>
       </c>
-      <c r="F16" t="s">
-        <v>418</v>
-      </c>
       <c r="G16" t="str">
-        <f>D16</f>
+        <f t="shared" si="1"/>
         <v>Calgary, Alberta</v>
       </c>
       <c r="H16" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="I16" t="s">
         <v>132</v>
       </c>
       <c r="J16" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -2893,17 +2887,17 @@
         <v>154</v>
       </c>
       <c r="G17" t="str">
-        <f>D17</f>
+        <f t="shared" si="1"/>
         <v>Charlotte, North Carolina</v>
       </c>
       <c r="H17" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I17" t="s">
         <v>6</v>
       </c>
       <c r="J17" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -2926,25 +2920,25 @@
         <v>154</v>
       </c>
       <c r="G18" t="str">
-        <f>D18</f>
+        <f t="shared" si="1"/>
         <v>Charlotte, North Carolina</v>
       </c>
       <c r="H18" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="I18" t="s">
         <v>6</v>
       </c>
       <c r="J18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B19" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C19" t="s">
         <v>151</v>
@@ -2959,17 +2953,17 @@
         <v>154</v>
       </c>
       <c r="G19" t="str">
-        <f>D19</f>
+        <f t="shared" si="1"/>
         <v>Charlotte, North Carolina</v>
       </c>
       <c r="H19" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="I19" t="s">
         <v>6</v>
       </c>
       <c r="J19" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -2992,17 +2986,17 @@
         <v>26</v>
       </c>
       <c r="G20" t="str">
-        <f>D20</f>
+        <f t="shared" si="1"/>
         <v>Chicago, Illinois</v>
       </c>
       <c r="H20" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I20" t="s">
         <v>6</v>
       </c>
       <c r="J20" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -3025,17 +3019,17 @@
         <v>26</v>
       </c>
       <c r="G21" t="str">
-        <f>D21</f>
+        <f t="shared" si="1"/>
         <v>Chicago, Illinois</v>
       </c>
       <c r="H21" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="I21" t="s">
         <v>6</v>
       </c>
       <c r="J21" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -3058,17 +3052,17 @@
         <v>26</v>
       </c>
       <c r="G22" t="str">
-        <f>D22</f>
+        <f t="shared" si="1"/>
         <v>Chicago, Illinois</v>
       </c>
       <c r="H22" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I22" t="s">
         <v>6</v>
       </c>
       <c r="J22" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -3091,25 +3085,25 @@
         <v>26</v>
       </c>
       <c r="G23" t="str">
-        <f>D23</f>
+        <f t="shared" si="1"/>
         <v>Chicago, Illinois</v>
       </c>
       <c r="H23" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="I23" t="s">
         <v>6</v>
       </c>
       <c r="J23" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B24" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C24" t="s">
         <v>156</v>
@@ -3124,25 +3118,25 @@
         <v>26</v>
       </c>
       <c r="G24" t="str">
-        <f>D24</f>
+        <f t="shared" si="1"/>
         <v>Chicago, Illinois</v>
       </c>
       <c r="H24" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="I24" t="s">
         <v>6</v>
       </c>
       <c r="J24" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B25" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C25" t="s">
         <v>253</v>
@@ -3157,17 +3151,17 @@
         <v>26</v>
       </c>
       <c r="G25" t="str">
-        <f>D25</f>
+        <f t="shared" si="1"/>
         <v>Chicago, Illinois</v>
       </c>
       <c r="H25" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="I25" t="s">
         <v>6</v>
       </c>
       <c r="J25" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -3190,17 +3184,17 @@
         <v>33</v>
       </c>
       <c r="G26" t="str">
-        <f>D26</f>
+        <f t="shared" si="1"/>
         <v>Cincinnati, Ohio</v>
       </c>
       <c r="H26" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I26" t="s">
         <v>6</v>
       </c>
       <c r="J26" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -3223,28 +3217,28 @@
         <v>33</v>
       </c>
       <c r="G27" t="str">
-        <f>D27</f>
+        <f t="shared" si="1"/>
         <v>Cincinnati, Ohio</v>
       </c>
       <c r="H27" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I27" t="s">
         <v>6</v>
       </c>
       <c r="J27" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B28" t="s">
+        <v>337</v>
+      </c>
+      <c r="C28" t="s">
         <v>338</v>
-      </c>
-      <c r="C28" t="s">
-        <v>339</v>
       </c>
       <c r="D28" t="s">
         <v>31</v>
@@ -3256,17 +3250,17 @@
         <v>33</v>
       </c>
       <c r="G28" t="str">
-        <f>D28</f>
+        <f t="shared" si="1"/>
         <v>Cincinnati, Ohio</v>
       </c>
       <c r="H28" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="I28" t="s">
         <v>6</v>
       </c>
       <c r="J28" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -3289,17 +3283,17 @@
         <v>33</v>
       </c>
       <c r="G29" t="str">
-        <f>D29</f>
+        <f t="shared" si="1"/>
         <v>Cleveland, Ohio</v>
       </c>
       <c r="H29" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I29" t="s">
         <v>6</v>
       </c>
       <c r="J29" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -3322,28 +3316,28 @@
         <v>33</v>
       </c>
       <c r="G30" t="str">
-        <f>D30</f>
+        <f t="shared" si="1"/>
         <v>Cleveland, Ohio</v>
       </c>
       <c r="H30" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="I30" t="s">
         <v>6</v>
       </c>
       <c r="J30" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B31" t="s">
+        <v>339</v>
+      </c>
+      <c r="C31" t="s">
         <v>340</v>
-      </c>
-      <c r="C31" t="s">
-        <v>341</v>
       </c>
       <c r="D31" t="s">
         <v>36</v>
@@ -3355,17 +3349,17 @@
         <v>33</v>
       </c>
       <c r="G31" t="str">
-        <f>D31</f>
+        <f t="shared" si="1"/>
         <v>Cleveland, Ohio</v>
       </c>
       <c r="H31" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="I31" t="s">
         <v>6</v>
       </c>
       <c r="J31" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -3388,28 +3382,28 @@
         <v>33</v>
       </c>
       <c r="G32" t="str">
-        <f>D32</f>
+        <f t="shared" si="1"/>
         <v>Columbus, Ohio</v>
       </c>
       <c r="H32" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I32" t="s">
         <v>6</v>
       </c>
       <c r="J32" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B33" t="s">
+        <v>424</v>
+      </c>
+      <c r="C33" t="s">
         <v>425</v>
-      </c>
-      <c r="C33" t="s">
-        <v>426</v>
       </c>
       <c r="D33" t="s">
         <v>163</v>
@@ -3421,17 +3415,17 @@
         <v>33</v>
       </c>
       <c r="G33" t="str">
-        <f>D33</f>
+        <f t="shared" si="1"/>
         <v>Columbus, Ohio</v>
       </c>
       <c r="H33" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="I33" t="s">
         <v>6</v>
       </c>
       <c r="J33" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -3457,13 +3451,13 @@
         <v>258</v>
       </c>
       <c r="H34" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I34" t="s">
         <v>6</v>
       </c>
       <c r="J34" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -3489,13 +3483,13 @@
         <v>258</v>
       </c>
       <c r="H35" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I35" t="s">
         <v>6</v>
       </c>
       <c r="J35" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -3522,24 +3516,24 @@
         <v>Dallas, Texas</v>
       </c>
       <c r="H36" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="I36" t="s">
         <v>6</v>
       </c>
       <c r="J36" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B37" t="s">
+        <v>341</v>
+      </c>
+      <c r="C37" t="s">
         <v>342</v>
-      </c>
-      <c r="C37" t="s">
-        <v>343</v>
       </c>
       <c r="D37" t="s">
         <v>125</v>
@@ -3554,21 +3548,21 @@
         <v>258</v>
       </c>
       <c r="H37" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="I37" t="s">
         <v>6</v>
       </c>
       <c r="J37" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B38" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C38" t="s">
         <v>257</v>
@@ -3587,13 +3581,13 @@
         <v>Dallas, Texas</v>
       </c>
       <c r="H38" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="I38" t="s">
         <v>6</v>
       </c>
       <c r="J38" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -3620,13 +3614,13 @@
         <v>Denver, Colorado</v>
       </c>
       <c r="H39" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I39" t="s">
         <v>6</v>
       </c>
       <c r="J39" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -3652,13 +3646,13 @@
         <v>40</v>
       </c>
       <c r="H40" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I40" t="s">
         <v>6</v>
       </c>
       <c r="J40" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -3681,28 +3675,28 @@
         <v>42</v>
       </c>
       <c r="G41" t="str">
-        <f>D41</f>
+        <f t="shared" ref="G41:G57" si="2">D41</f>
         <v>Denver, Colorado</v>
       </c>
       <c r="H41" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="I41" t="s">
         <v>6</v>
       </c>
       <c r="J41" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B42" t="s">
+        <v>343</v>
+      </c>
+      <c r="C42" t="s">
         <v>344</v>
-      </c>
-      <c r="C42" t="s">
-        <v>345</v>
       </c>
       <c r="D42" t="s">
         <v>40</v>
@@ -3714,25 +3708,25 @@
         <v>42</v>
       </c>
       <c r="G42" t="str">
-        <f>D42</f>
+        <f t="shared" si="2"/>
         <v>Denver, Colorado</v>
       </c>
       <c r="H42" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="I42" t="s">
         <v>6</v>
       </c>
       <c r="J42" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B43" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C43" t="s">
         <v>261</v>
@@ -3747,17 +3741,17 @@
         <v>42</v>
       </c>
       <c r="G43" t="str">
-        <f>D43</f>
+        <f t="shared" si="2"/>
         <v>Denver, Colorado</v>
       </c>
       <c r="H43" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="I43" t="s">
         <v>6</v>
       </c>
       <c r="J43" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -3780,17 +3774,17 @@
         <v>47</v>
       </c>
       <c r="G44" t="str">
-        <f>D44</f>
+        <f t="shared" si="2"/>
         <v>Detroit, Michigan</v>
       </c>
       <c r="H44" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I44" t="s">
         <v>6</v>
       </c>
       <c r="J44" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -3813,28 +3807,28 @@
         <v>47</v>
       </c>
       <c r="G45" t="str">
-        <f>D45</f>
+        <f t="shared" si="2"/>
         <v>Detroit, Michigan</v>
       </c>
       <c r="H45" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="I45" t="s">
         <v>6</v>
       </c>
       <c r="J45" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B46" t="s">
+        <v>345</v>
+      </c>
+      <c r="C46" t="s">
         <v>346</v>
-      </c>
-      <c r="C46" t="s">
-        <v>347</v>
       </c>
       <c r="D46" t="s">
         <v>45</v>
@@ -3846,25 +3840,25 @@
         <v>47</v>
       </c>
       <c r="G46" t="str">
-        <f>D46</f>
+        <f t="shared" si="2"/>
         <v>Detroit, Michigan</v>
       </c>
       <c r="H46" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="I46" t="s">
         <v>6</v>
       </c>
       <c r="J46" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B47" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C47" t="s">
         <v>263</v>
@@ -3879,83 +3873,83 @@
         <v>47</v>
       </c>
       <c r="G47" t="str">
-        <f>D47</f>
+        <f t="shared" si="2"/>
         <v>Detroit, Michigan</v>
       </c>
       <c r="H47" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="I47" t="s">
         <v>6</v>
       </c>
       <c r="J47" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B48" t="s">
+        <v>428</v>
+      </c>
+      <c r="C48" t="s">
         <v>429</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>430</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>431</v>
       </c>
-      <c r="E48" t="s">
-        <v>432</v>
-      </c>
       <c r="F48" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G48" t="str">
-        <f>D48</f>
+        <f t="shared" si="2"/>
         <v>Edmonton, Alberta</v>
       </c>
       <c r="H48" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="I48" t="s">
         <v>132</v>
       </c>
       <c r="J48" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B49" t="s">
+        <v>347</v>
+      </c>
+      <c r="C49" t="s">
         <v>348</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>349</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>350</v>
-      </c>
-      <c r="E49" t="s">
-        <v>351</v>
       </c>
       <c r="F49" t="s">
         <v>74</v>
       </c>
       <c r="G49" t="str">
-        <f>D49</f>
+        <f t="shared" si="2"/>
         <v>Green Bay, Wisconsin</v>
       </c>
       <c r="H49" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="I49" t="s">
         <v>6</v>
       </c>
       <c r="J49" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -3978,17 +3972,17 @@
         <v>52</v>
       </c>
       <c r="G50" t="str">
-        <f>D50</f>
+        <f t="shared" si="2"/>
         <v>Houston, Texas</v>
       </c>
       <c r="H50" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I50" t="s">
         <v>6</v>
       </c>
       <c r="J50" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -4011,17 +4005,17 @@
         <v>52</v>
       </c>
       <c r="G51" t="str">
-        <f>D51</f>
+        <f t="shared" si="2"/>
         <v>Houston, Texas</v>
       </c>
       <c r="H51" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I51" t="s">
         <v>6</v>
       </c>
       <c r="J51" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -4044,28 +4038,28 @@
         <v>52</v>
       </c>
       <c r="G52" t="str">
-        <f>D52</f>
+        <f t="shared" si="2"/>
         <v>Houston, Texas</v>
       </c>
       <c r="H52" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="I52" t="s">
         <v>6</v>
       </c>
       <c r="J52" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B53" t="s">
+        <v>351</v>
+      </c>
+      <c r="C53" t="s">
         <v>352</v>
-      </c>
-      <c r="C53" t="s">
-        <v>353</v>
       </c>
       <c r="D53" t="s">
         <v>50</v>
@@ -4077,17 +4071,17 @@
         <v>52</v>
       </c>
       <c r="G53" t="str">
-        <f>D53</f>
+        <f t="shared" si="2"/>
         <v>Houston, Texas</v>
       </c>
       <c r="H53" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="I53" t="s">
         <v>6</v>
       </c>
       <c r="J53" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -4110,28 +4104,28 @@
         <v>272</v>
       </c>
       <c r="G54" t="str">
-        <f>D54</f>
+        <f t="shared" si="2"/>
         <v>Indianapolis, Indiana</v>
       </c>
       <c r="H54" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="I54" t="s">
         <v>6</v>
       </c>
       <c r="J54" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B55" t="s">
+        <v>353</v>
+      </c>
+      <c r="C55" t="s">
         <v>354</v>
-      </c>
-      <c r="C55" t="s">
-        <v>355</v>
       </c>
       <c r="D55" t="s">
         <v>270</v>
@@ -4143,50 +4137,50 @@
         <v>272</v>
       </c>
       <c r="G55" t="str">
-        <f>D55</f>
+        <f t="shared" si="2"/>
         <v>Indianapolis, Indiana</v>
       </c>
       <c r="H55" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="I55" t="s">
         <v>6</v>
       </c>
       <c r="J55" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B56" t="s">
+        <v>355</v>
+      </c>
+      <c r="C56" t="s">
+        <v>511</v>
+      </c>
+      <c r="D56" t="s">
         <v>356</v>
       </c>
-      <c r="C56" t="s">
-        <v>512</v>
-      </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>357</v>
-      </c>
-      <c r="E56" t="s">
-        <v>358</v>
       </c>
       <c r="F56" t="s">
         <v>69</v>
       </c>
       <c r="G56" t="str">
-        <f>D56</f>
+        <f t="shared" si="2"/>
         <v>Jacksonville, Florida</v>
       </c>
       <c r="H56" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="I56" t="s">
         <v>6</v>
       </c>
       <c r="J56" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -4209,17 +4203,17 @@
         <v>57</v>
       </c>
       <c r="G57" t="str">
-        <f>D57</f>
+        <f t="shared" si="2"/>
         <v>Kansas City, Missouri</v>
       </c>
       <c r="H57" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I57" t="s">
         <v>6</v>
       </c>
       <c r="J57" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -4245,24 +4239,24 @@
         <v>55</v>
       </c>
       <c r="H58" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I58" t="s">
         <v>6</v>
       </c>
       <c r="J58" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B59" t="s">
+        <v>358</v>
+      </c>
+      <c r="C59" t="s">
         <v>359</v>
-      </c>
-      <c r="C59" t="s">
-        <v>360</v>
       </c>
       <c r="D59" t="s">
         <v>55</v>
@@ -4278,77 +4272,77 @@
         <v>Kansas City, Missouri</v>
       </c>
       <c r="H59" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="I59" t="s">
         <v>6</v>
       </c>
       <c r="J59" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B60" t="s">
+        <v>360</v>
+      </c>
+      <c r="C60" t="s">
         <v>361</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>362</v>
       </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
         <v>363</v>
       </c>
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>364</v>
       </c>
-      <c r="F60" t="s">
-        <v>365</v>
-      </c>
       <c r="G60" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="H60" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="I60" t="s">
         <v>6</v>
       </c>
       <c r="J60" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B61" t="s">
+        <v>467</v>
+      </c>
+      <c r="C61" t="s">
         <v>468</v>
       </c>
-      <c r="C61" t="s">
-        <v>469</v>
-      </c>
       <c r="D61" t="s">
+        <v>362</v>
+      </c>
+      <c r="E61" t="s">
         <v>363</v>
       </c>
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>364</v>
       </c>
-      <c r="F61" t="s">
-        <v>365</v>
-      </c>
       <c r="G61" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="H61" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="I61" t="s">
         <v>6</v>
       </c>
       <c r="J61" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
@@ -4375,13 +4369,13 @@
         <v>Los Angeles, California</v>
       </c>
       <c r="H62" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I62" t="s">
         <v>6</v>
       </c>
       <c r="J62" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
@@ -4408,13 +4402,13 @@
         <v>Los Angeles, California</v>
       </c>
       <c r="H63" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="I63" t="s">
         <v>6</v>
       </c>
       <c r="J63" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
@@ -4441,13 +4435,13 @@
         <v>Los Angeles, California</v>
       </c>
       <c r="H64" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I64" t="s">
         <v>6</v>
       </c>
       <c r="J64" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
@@ -4473,13 +4467,13 @@
         <v>60</v>
       </c>
       <c r="H65" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="I65" t="s">
         <v>6</v>
       </c>
       <c r="J65" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
@@ -4506,13 +4500,13 @@
         <v>Los Angeles, California</v>
       </c>
       <c r="H66" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="I66" t="s">
         <v>6</v>
       </c>
       <c r="J66" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
@@ -4539,30 +4533,30 @@
         <v>Los Angeles, California</v>
       </c>
       <c r="H67" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="I67" t="s">
         <v>6</v>
       </c>
       <c r="J67" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B68" t="s">
+        <v>365</v>
+      </c>
+      <c r="C68" t="s">
         <v>366</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>367</v>
       </c>
-      <c r="D68" t="s">
+      <c r="E68" t="s">
         <v>368</v>
-      </c>
-      <c r="E68" t="s">
-        <v>369</v>
       </c>
       <c r="F68" t="s">
         <v>62</v>
@@ -4571,30 +4565,30 @@
         <v>60</v>
       </c>
       <c r="H68" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="I68" t="s">
         <v>6</v>
       </c>
       <c r="J68" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B69" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C69" t="s">
+        <v>366</v>
+      </c>
+      <c r="D69" t="s">
         <v>367</v>
       </c>
-      <c r="D69" t="s">
+      <c r="E69" t="s">
         <v>368</v>
-      </c>
-      <c r="E69" t="s">
-        <v>369</v>
       </c>
       <c r="F69" t="s">
         <v>62</v>
@@ -4603,30 +4597,30 @@
         <v>60</v>
       </c>
       <c r="H69" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="I69" t="s">
         <v>6</v>
       </c>
       <c r="J69" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>403</v>
+      </c>
+      <c r="B70" t="s">
         <v>404</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
         <v>405</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>406</v>
       </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
         <v>407</v>
-      </c>
-      <c r="E70" t="s">
-        <v>408</v>
       </c>
       <c r="F70" t="s">
         <v>62</v>
@@ -4635,24 +4629,24 @@
         <v>60</v>
       </c>
       <c r="H70" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="I70" t="s">
         <v>6</v>
       </c>
       <c r="J70" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B71" t="s">
+        <v>436</v>
+      </c>
+      <c r="C71" t="s">
         <v>437</v>
-      </c>
-      <c r="C71" t="s">
-        <v>438</v>
       </c>
       <c r="D71" t="s">
         <v>60</v>
@@ -4668,13 +4662,13 @@
         <v>Los Angeles, California</v>
       </c>
       <c r="H71" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="I71" t="s">
         <v>6</v>
       </c>
       <c r="J71" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
@@ -4701,13 +4695,13 @@
         <v>Memphis, Tennessee</v>
       </c>
       <c r="H72" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="I72" t="s">
         <v>6</v>
       </c>
       <c r="J72" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
@@ -4734,13 +4728,13 @@
         <v>Miami, Florida</v>
       </c>
       <c r="H73" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I73" t="s">
         <v>6</v>
       </c>
       <c r="J73" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
@@ -4766,13 +4760,13 @@
         <v>67</v>
       </c>
       <c r="H74" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I74" t="s">
         <v>6</v>
       </c>
       <c r="J74" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
@@ -4799,30 +4793,30 @@
         <v>Miami, Florida</v>
       </c>
       <c r="H75" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="I75" t="s">
         <v>6</v>
       </c>
       <c r="J75" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B76" t="s">
+        <v>370</v>
+      </c>
+      <c r="C76" t="s">
         <v>371</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
         <v>372</v>
       </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
         <v>373</v>
-      </c>
-      <c r="E76" t="s">
-        <v>374</v>
       </c>
       <c r="F76" t="s">
         <v>69</v>
@@ -4831,30 +4825,30 @@
         <v>67</v>
       </c>
       <c r="H76" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="I76" t="s">
         <v>6</v>
       </c>
       <c r="J76" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B77" t="s">
+        <v>432</v>
+      </c>
+      <c r="C77" t="s">
         <v>433</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
         <v>434</v>
       </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
         <v>435</v>
-      </c>
-      <c r="E77" t="s">
-        <v>436</v>
       </c>
       <c r="F77" t="s">
         <v>69</v>
@@ -4863,13 +4857,13 @@
         <v>67</v>
       </c>
       <c r="H77" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="I77" t="s">
         <v>6</v>
       </c>
       <c r="J77" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
@@ -4896,13 +4890,13 @@
         <v>Milwaukee, Wisconsin</v>
       </c>
       <c r="H78" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I78" t="s">
         <v>6</v>
       </c>
       <c r="J78" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
@@ -4929,13 +4923,13 @@
         <v>Milwaukee, Wisconsin</v>
       </c>
       <c r="H79" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="I79" t="s">
         <v>6</v>
       </c>
       <c r="J79" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
@@ -4962,13 +4956,13 @@
         <v>Minneapolis, Minnesota</v>
       </c>
       <c r="H80" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I80" t="s">
         <v>6</v>
       </c>
       <c r="J80" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
@@ -4994,13 +4988,13 @@
         <v>77</v>
       </c>
       <c r="H81" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I81" t="s">
         <v>6</v>
       </c>
       <c r="J81" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
@@ -5027,24 +5021,24 @@
         <v>Minneapolis, Minnesota</v>
       </c>
       <c r="H82" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="I82" t="s">
         <v>6</v>
       </c>
       <c r="J82" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B83" t="s">
+        <v>374</v>
+      </c>
+      <c r="C83" t="s">
         <v>375</v>
-      </c>
-      <c r="C83" t="s">
-        <v>376</v>
       </c>
       <c r="D83" t="s">
         <v>77</v>
@@ -5060,24 +5054,24 @@
         <v>Minneapolis, Minnesota</v>
       </c>
       <c r="H83" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="I83" t="s">
         <v>6</v>
       </c>
       <c r="J83" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B84" t="s">
+        <v>438</v>
+      </c>
+      <c r="C84" t="s">
         <v>439</v>
-      </c>
-      <c r="C84" t="s">
-        <v>440</v>
       </c>
       <c r="D84" t="s">
         <v>187</v>
@@ -5092,13 +5086,13 @@
         <v>77</v>
       </c>
       <c r="H84" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="I84" t="s">
         <v>6</v>
       </c>
       <c r="J84" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
@@ -5106,7 +5100,7 @@
         <v>137</v>
       </c>
       <c r="B85" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C85" t="s">
         <v>146</v>
@@ -5121,28 +5115,28 @@
         <v>149</v>
       </c>
       <c r="G85" t="str">
-        <f>D85</f>
+        <f t="shared" ref="G85:G91" si="3">D85</f>
         <v>Montreal, Quebec</v>
       </c>
       <c r="H85" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I85" t="s">
         <v>132</v>
       </c>
       <c r="J85" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B86" t="s">
+        <v>440</v>
+      </c>
+      <c r="C86" t="s">
         <v>441</v>
-      </c>
-      <c r="C86" t="s">
-        <v>442</v>
       </c>
       <c r="D86" t="s">
         <v>147</v>
@@ -5154,17 +5148,17 @@
         <v>149</v>
       </c>
       <c r="G86" t="str">
-        <f>D86</f>
+        <f t="shared" si="3"/>
         <v>Montreal, Quebec</v>
       </c>
       <c r="H86" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="I86" t="s">
         <v>132</v>
       </c>
       <c r="J86" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
@@ -5187,28 +5181,28 @@
         <v>193</v>
       </c>
       <c r="G87" t="str">
-        <f>D87</f>
+        <f t="shared" si="3"/>
         <v>Nashville, Tennessee</v>
       </c>
       <c r="H87" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I87" t="s">
         <v>6</v>
       </c>
       <c r="J87" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B88" t="s">
+        <v>397</v>
+      </c>
+      <c r="C88" t="s">
         <v>398</v>
-      </c>
-      <c r="C88" t="s">
-        <v>399</v>
       </c>
       <c r="D88" t="s">
         <v>191</v>
@@ -5220,28 +5214,28 @@
         <v>193</v>
       </c>
       <c r="G88" t="str">
-        <f>D88</f>
+        <f t="shared" si="3"/>
         <v>Nashville, Tennessee</v>
       </c>
       <c r="H88" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="I88" t="s">
         <v>6</v>
       </c>
       <c r="J88" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B89" t="s">
+        <v>442</v>
+      </c>
+      <c r="C89" t="s">
         <v>443</v>
-      </c>
-      <c r="C89" t="s">
-        <v>444</v>
       </c>
       <c r="D89" t="s">
         <v>191</v>
@@ -5253,17 +5247,17 @@
         <v>193</v>
       </c>
       <c r="G89" t="str">
-        <f>D89</f>
+        <f t="shared" si="3"/>
         <v>Nashville, Tennessee</v>
       </c>
       <c r="H89" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="I89" t="s">
         <v>6</v>
       </c>
       <c r="J89" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
@@ -5286,28 +5280,28 @@
         <v>290</v>
       </c>
       <c r="G90" t="str">
-        <f>D90</f>
+        <f t="shared" si="3"/>
         <v>New Orleans, Louisiana</v>
       </c>
       <c r="H90" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="I90" t="s">
         <v>6</v>
       </c>
       <c r="J90" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B91" t="s">
+        <v>377</v>
+      </c>
+      <c r="C91" t="s">
         <v>378</v>
-      </c>
-      <c r="C91" t="s">
-        <v>379</v>
       </c>
       <c r="D91" t="s">
         <v>288</v>
@@ -5319,17 +5313,17 @@
         <v>290</v>
       </c>
       <c r="G91" t="str">
-        <f>D91</f>
+        <f t="shared" si="3"/>
         <v>New Orleans, Louisiana</v>
       </c>
       <c r="H91" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="I91" t="s">
         <v>6</v>
       </c>
       <c r="J91" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
@@ -5355,13 +5349,13 @@
         <v>293</v>
       </c>
       <c r="H92" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I92" t="s">
         <v>6</v>
       </c>
       <c r="J92" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
@@ -5387,13 +5381,13 @@
         <v>293</v>
       </c>
       <c r="H93" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="I93" t="s">
         <v>6</v>
       </c>
       <c r="J93" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
@@ -5419,13 +5413,13 @@
         <v>293</v>
       </c>
       <c r="H94" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I94" t="s">
         <v>6</v>
       </c>
       <c r="J94" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
@@ -5451,13 +5445,13 @@
         <v>293</v>
       </c>
       <c r="H95" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="I95" t="s">
         <v>6</v>
       </c>
       <c r="J95" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
@@ -5483,13 +5477,13 @@
         <v>293</v>
       </c>
       <c r="H96" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="I96" t="s">
         <v>6</v>
       </c>
       <c r="J96" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
@@ -5516,30 +5510,30 @@
         <v>New York City, New York</v>
       </c>
       <c r="H97" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="I97" t="s">
         <v>6</v>
       </c>
       <c r="J97" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B98" t="s">
+        <v>379</v>
+      </c>
+      <c r="C98" t="s">
         <v>380</v>
       </c>
-      <c r="C98" t="s">
+      <c r="D98" t="s">
         <v>381</v>
       </c>
-      <c r="D98" t="s">
+      <c r="E98" t="s">
         <v>382</v>
-      </c>
-      <c r="E98" t="s">
-        <v>383</v>
       </c>
       <c r="F98" t="s">
         <v>203</v>
@@ -5548,30 +5542,30 @@
         <v>293</v>
       </c>
       <c r="H98" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="I98" t="s">
         <v>6</v>
       </c>
       <c r="J98" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B99" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C99" t="s">
+        <v>380</v>
+      </c>
+      <c r="D99" t="s">
         <v>381</v>
       </c>
-      <c r="D99" t="s">
+      <c r="E99" t="s">
         <v>382</v>
-      </c>
-      <c r="E99" t="s">
-        <v>383</v>
       </c>
       <c r="F99" t="s">
         <v>203</v>
@@ -5580,30 +5574,30 @@
         <v>293</v>
       </c>
       <c r="H99" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="I99" t="s">
         <v>6</v>
       </c>
       <c r="J99" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B100" t="s">
+        <v>444</v>
+      </c>
+      <c r="C100" t="s">
         <v>445</v>
       </c>
-      <c r="C100" t="s">
+      <c r="D100" t="s">
         <v>446</v>
       </c>
-      <c r="D100" t="s">
+      <c r="E100" t="s">
         <v>447</v>
-      </c>
-      <c r="E100" t="s">
-        <v>448</v>
       </c>
       <c r="F100" t="s">
         <v>203</v>
@@ -5612,21 +5606,21 @@
         <v>293</v>
       </c>
       <c r="H100" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="I100" t="s">
         <v>6</v>
       </c>
       <c r="J100" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B101" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C101" t="s">
         <v>247</v>
@@ -5644,30 +5638,30 @@
         <v>293</v>
       </c>
       <c r="H101" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="I101" t="s">
         <v>6</v>
       </c>
       <c r="J101" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B102" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C102" t="s">
+        <v>534</v>
+      </c>
+      <c r="D102" t="s">
         <v>535</v>
       </c>
-      <c r="D102" t="s">
+      <c r="E102" t="s">
         <v>536</v>
-      </c>
-      <c r="E102" t="s">
-        <v>537</v>
       </c>
       <c r="F102" t="s">
         <v>84</v>
@@ -5676,21 +5670,21 @@
         <v>293</v>
       </c>
       <c r="H102" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="I102" t="s">
         <v>6</v>
       </c>
       <c r="J102" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B103" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C103" t="s">
         <v>292</v>
@@ -5705,17 +5699,17 @@
         <v>84</v>
       </c>
       <c r="G103" t="str">
-        <f>D103</f>
+        <f t="shared" ref="G103:G108" si="4">D103</f>
         <v>New York City, New York</v>
       </c>
       <c r="H103" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="I103" t="s">
         <v>6</v>
       </c>
       <c r="J103" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
@@ -5738,17 +5732,17 @@
         <v>299</v>
       </c>
       <c r="G104" t="str">
-        <f>D104</f>
+        <f t="shared" si="4"/>
         <v>Oklahoma City, Oklahoma</v>
       </c>
       <c r="H104" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="I104" t="s">
         <v>6</v>
       </c>
       <c r="J104" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
@@ -5771,17 +5765,17 @@
         <v>69</v>
       </c>
       <c r="G105" t="str">
-        <f>D105</f>
+        <f t="shared" si="4"/>
         <v>Orlando, Florida</v>
       </c>
       <c r="H105" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I105" t="s">
         <v>6</v>
       </c>
       <c r="J105" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
@@ -5804,50 +5798,50 @@
         <v>69</v>
       </c>
       <c r="G106" t="str">
-        <f>D106</f>
+        <f t="shared" si="4"/>
         <v>Orlando, Florida</v>
       </c>
       <c r="H106" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="I106" t="s">
         <v>6</v>
       </c>
       <c r="J106" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B107" t="s">
+        <v>450</v>
+      </c>
+      <c r="C107" t="s">
         <v>451</v>
       </c>
-      <c r="C107" t="s">
+      <c r="D107" t="s">
         <v>452</v>
       </c>
-      <c r="D107" t="s">
+      <c r="E107" t="s">
         <v>453</v>
-      </c>
-      <c r="E107" t="s">
-        <v>454</v>
       </c>
       <c r="F107" t="s">
         <v>131</v>
       </c>
       <c r="G107" t="str">
-        <f>D107</f>
+        <f t="shared" si="4"/>
         <v>Ottawa, Ontario</v>
       </c>
       <c r="H107" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="I107" t="s">
         <v>132</v>
       </c>
       <c r="J107" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
@@ -5870,17 +5864,17 @@
         <v>97</v>
       </c>
       <c r="G108" t="str">
-        <f>D108</f>
+        <f t="shared" si="4"/>
         <v>Philadelphia, Pennsylvania</v>
       </c>
       <c r="H108" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I108" t="s">
         <v>6</v>
       </c>
       <c r="J108" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
@@ -5906,13 +5900,13 @@
         <v>95</v>
       </c>
       <c r="H109" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I109" t="s">
         <v>6</v>
       </c>
       <c r="J109" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
@@ -5939,24 +5933,24 @@
         <v>Philadelphia, Pennsylvania</v>
       </c>
       <c r="H110" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="I110" t="s">
         <v>6</v>
       </c>
       <c r="J110" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B111" t="s">
+        <v>384</v>
+      </c>
+      <c r="C111" t="s">
         <v>385</v>
-      </c>
-      <c r="C111" t="s">
-        <v>386</v>
       </c>
       <c r="D111" t="s">
         <v>95</v>
@@ -5972,21 +5966,21 @@
         <v>Philadelphia, Pennsylvania</v>
       </c>
       <c r="H111" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="I111" t="s">
         <v>6</v>
       </c>
       <c r="J111" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B112" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C112" t="s">
         <v>303</v>
@@ -6005,13 +5999,13 @@
         <v>Philadelphia, Pennsylvania</v>
       </c>
       <c r="H112" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="I112" t="s">
         <v>6</v>
       </c>
       <c r="J112" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
@@ -6038,13 +6032,13 @@
         <v>Phoenix, Arizona</v>
       </c>
       <c r="H113" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I113" t="s">
         <v>6</v>
       </c>
       <c r="J113" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
@@ -6071,30 +6065,30 @@
         <v>Phoenix, Arizona</v>
       </c>
       <c r="H114" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="I114" t="s">
         <v>6</v>
       </c>
       <c r="J114" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
+        <v>323</v>
+      </c>
+      <c r="B115" t="s">
         <v>324</v>
       </c>
-      <c r="B115" t="s">
+      <c r="C115" t="s">
         <v>325</v>
       </c>
-      <c r="C115" t="s">
+      <c r="D115" t="s">
         <v>326</v>
       </c>
-      <c r="D115" t="s">
+      <c r="E115" t="s">
         <v>327</v>
-      </c>
-      <c r="E115" t="s">
-        <v>328</v>
       </c>
       <c r="F115" t="s">
         <v>5</v>
@@ -6103,13 +6097,13 @@
         <v>3</v>
       </c>
       <c r="H115" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="I115" t="s">
         <v>6</v>
       </c>
       <c r="J115" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
@@ -6132,28 +6126,28 @@
         <v>97</v>
       </c>
       <c r="G116" t="str">
-        <f>D116</f>
+        <f t="shared" ref="G116:G122" si="5">D116</f>
         <v>Pittsburgh, Pennsylvania</v>
       </c>
       <c r="H116" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I116" t="s">
         <v>6</v>
       </c>
       <c r="J116" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B117" t="s">
+        <v>386</v>
+      </c>
+      <c r="C117" t="s">
         <v>387</v>
-      </c>
-      <c r="C117" t="s">
-        <v>388</v>
       </c>
       <c r="D117" t="s">
         <v>100</v>
@@ -6165,28 +6159,28 @@
         <v>97</v>
       </c>
       <c r="G117" t="str">
-        <f>D117</f>
+        <f t="shared" si="5"/>
         <v>Pittsburgh, Pennsylvania</v>
       </c>
       <c r="H117" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="I117" t="s">
         <v>6</v>
       </c>
       <c r="J117" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B118" t="s">
+        <v>455</v>
+      </c>
+      <c r="C118" t="s">
         <v>456</v>
-      </c>
-      <c r="C118" t="s">
-        <v>457</v>
       </c>
       <c r="D118" t="s">
         <v>100</v>
@@ -6198,17 +6192,17 @@
         <v>97</v>
       </c>
       <c r="G118" t="str">
-        <f>D118</f>
+        <f t="shared" si="5"/>
         <v>Pittsburgh, Pennsylvania</v>
       </c>
       <c r="H118" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="I118" t="s">
         <v>6</v>
       </c>
       <c r="J118" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
@@ -6231,17 +6225,17 @@
         <v>216</v>
       </c>
       <c r="G119" t="str">
-        <f>D119</f>
+        <f t="shared" si="5"/>
         <v>Portland, Oregon</v>
       </c>
       <c r="H119" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I119" t="s">
         <v>6</v>
       </c>
       <c r="J119" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
@@ -6264,50 +6258,50 @@
         <v>216</v>
       </c>
       <c r="G120" t="str">
-        <f>D120</f>
+        <f t="shared" si="5"/>
         <v>Portland, Oregon</v>
       </c>
       <c r="H120" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="I120" t="s">
         <v>6</v>
       </c>
       <c r="J120" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B121" t="s">
+        <v>418</v>
+      </c>
+      <c r="C121" t="s">
         <v>419</v>
       </c>
-      <c r="C121" t="s">
+      <c r="D121" t="s">
         <v>420</v>
       </c>
-      <c r="D121" t="s">
+      <c r="E121" t="s">
         <v>421</v>
-      </c>
-      <c r="E121" t="s">
-        <v>422</v>
       </c>
       <c r="F121" t="s">
         <v>154</v>
       </c>
       <c r="G121" t="str">
-        <f>D121</f>
+        <f t="shared" si="5"/>
         <v>Raleigh, North Carolina</v>
       </c>
       <c r="H121" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="I121" t="s">
         <v>6</v>
       </c>
       <c r="J121" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
@@ -6330,17 +6324,17 @@
         <v>62</v>
       </c>
       <c r="G122" t="str">
-        <f>D122</f>
+        <f t="shared" si="5"/>
         <v>Sacramento, California</v>
       </c>
       <c r="H122" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="I122" t="s">
         <v>6</v>
       </c>
       <c r="J122" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
@@ -6363,16 +6357,16 @@
         <v>221</v>
       </c>
       <c r="G123" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H123" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I123" t="s">
         <v>6</v>
       </c>
       <c r="J123" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
@@ -6383,13 +6377,13 @@
         <v>318</v>
       </c>
       <c r="C124" t="s">
+        <v>622</v>
+      </c>
+      <c r="D124" t="s">
         <v>319</v>
       </c>
-      <c r="D124" t="s">
+      <c r="E124" t="s">
         <v>320</v>
-      </c>
-      <c r="E124" t="s">
-        <v>321</v>
       </c>
       <c r="F124" t="s">
         <v>221</v>
@@ -6399,30 +6393,30 @@
         <v>Salt Lake City, Utah</v>
       </c>
       <c r="H124" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="I124" t="s">
         <v>6</v>
       </c>
       <c r="J124" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B125" t="s">
         <v>221</v>
       </c>
       <c r="C125" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D125" t="s">
+        <v>319</v>
+      </c>
+      <c r="E125" t="s">
         <v>320</v>
-      </c>
-      <c r="E125" t="s">
-        <v>321</v>
       </c>
       <c r="F125" t="s">
         <v>221</v>
@@ -6432,13 +6426,13 @@
         <v>Salt Lake City, Utah</v>
       </c>
       <c r="H125" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="I125" t="s">
         <v>6</v>
       </c>
       <c r="J125" t="s">
-        <v>624</v>
+        <v>502</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
@@ -6465,13 +6459,13 @@
         <v>San Antonio, Texas</v>
       </c>
       <c r="H126" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="I126" t="s">
         <v>6</v>
       </c>
       <c r="J126" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
@@ -6498,13 +6492,13 @@
         <v>San Diego, California</v>
       </c>
       <c r="H127" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I127" t="s">
         <v>6</v>
       </c>
       <c r="J127" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
@@ -6530,13 +6524,13 @@
         <v>108</v>
       </c>
       <c r="H128" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I128" t="s">
         <v>6</v>
       </c>
       <c r="J128" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
@@ -6563,13 +6557,13 @@
         <v>San Francisco, California</v>
       </c>
       <c r="H129" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="I129" t="s">
         <v>6</v>
       </c>
       <c r="J129" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
@@ -6595,13 +6589,13 @@
         <v>108</v>
       </c>
       <c r="H130" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I130" t="s">
         <v>6</v>
       </c>
       <c r="J130" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
@@ -6628,30 +6622,30 @@
         <v>San Francisco, California</v>
       </c>
       <c r="H131" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="I131" t="s">
         <v>6</v>
       </c>
       <c r="J131" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B132" t="s">
+        <v>388</v>
+      </c>
+      <c r="C132" t="s">
         <v>389</v>
       </c>
-      <c r="C132" t="s">
+      <c r="D132" t="s">
         <v>390</v>
       </c>
-      <c r="D132" t="s">
+      <c r="E132" t="s">
         <v>391</v>
-      </c>
-      <c r="E132" t="s">
-        <v>392</v>
       </c>
       <c r="F132" t="s">
         <v>62</v>
@@ -6660,24 +6654,24 @@
         <v>108</v>
       </c>
       <c r="H132" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="I132" t="s">
         <v>6</v>
       </c>
       <c r="J132" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B133" t="s">
+        <v>457</v>
+      </c>
+      <c r="C133" t="s">
         <v>458</v>
-      </c>
-      <c r="C133" t="s">
-        <v>459</v>
       </c>
       <c r="D133" t="s">
         <v>224</v>
@@ -6692,13 +6686,13 @@
         <v>108</v>
       </c>
       <c r="H133" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="I133" t="s">
         <v>6</v>
       </c>
       <c r="J133" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
@@ -6721,17 +6715,17 @@
         <v>114</v>
       </c>
       <c r="G134" t="str">
-        <f>D134</f>
+        <f t="shared" ref="G134:G140" si="6">D134</f>
         <v>Seattle, Washington</v>
       </c>
       <c r="H134" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I134" t="s">
         <v>6</v>
       </c>
       <c r="J134" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
@@ -6754,25 +6748,25 @@
         <v>114</v>
       </c>
       <c r="G135" t="str">
-        <f>D135</f>
+        <f t="shared" si="6"/>
         <v>Seattle, Washington</v>
       </c>
       <c r="H135" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I135" t="s">
         <v>6</v>
       </c>
       <c r="J135" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B136" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C136" t="s">
         <v>227</v>
@@ -6787,28 +6781,28 @@
         <v>114</v>
       </c>
       <c r="G136" t="str">
-        <f>D136</f>
+        <f t="shared" si="6"/>
         <v>Seattle, Washington</v>
       </c>
       <c r="H136" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="I136" t="s">
         <v>6</v>
       </c>
       <c r="J136" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B137" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C137" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D137" t="s">
         <v>112</v>
@@ -6820,17 +6814,17 @@
         <v>114</v>
       </c>
       <c r="G137" t="str">
-        <f>D137</f>
+        <f t="shared" si="6"/>
         <v>Seattle, Washington</v>
       </c>
       <c r="H137" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="I137" t="s">
         <v>6</v>
       </c>
       <c r="J137" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
@@ -6853,17 +6847,17 @@
         <v>57</v>
       </c>
       <c r="G138" t="str">
-        <f>D138</f>
+        <f t="shared" si="6"/>
         <v>St. Louis, Missouri</v>
       </c>
       <c r="H138" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I138" t="s">
         <v>6</v>
       </c>
       <c r="J138" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
@@ -6886,28 +6880,28 @@
         <v>57</v>
       </c>
       <c r="G139" t="str">
-        <f>D139</f>
+        <f t="shared" si="6"/>
         <v>St. Louis, Missouri</v>
       </c>
       <c r="H139" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I139" t="s">
         <v>6</v>
       </c>
       <c r="J139" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B140" t="s">
+        <v>460</v>
+      </c>
+      <c r="C140" t="s">
         <v>461</v>
-      </c>
-      <c r="C140" t="s">
-        <v>462</v>
       </c>
       <c r="D140" t="s">
         <v>117</v>
@@ -6919,17 +6913,17 @@
         <v>57</v>
       </c>
       <c r="G140" t="str">
-        <f>D140</f>
+        <f t="shared" si="6"/>
         <v>St. Louis, Missouri</v>
       </c>
       <c r="H140" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="I140" t="s">
         <v>6</v>
       </c>
       <c r="J140" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
@@ -6952,82 +6946,82 @@
         <v>69</v>
       </c>
       <c r="G141" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H141" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I141" t="s">
         <v>6</v>
       </c>
       <c r="J141" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B142" t="s">
+        <v>393</v>
+      </c>
+      <c r="C142" t="s">
         <v>394</v>
       </c>
-      <c r="C142" t="s">
+      <c r="D142" t="s">
         <v>395</v>
       </c>
-      <c r="D142" t="s">
+      <c r="E142" t="s">
         <v>396</v>
-      </c>
-      <c r="E142" t="s">
-        <v>397</v>
       </c>
       <c r="F142" t="s">
         <v>69</v>
       </c>
       <c r="G142" t="str">
-        <f>D142</f>
+        <f t="shared" ref="G142:G152" si="7">D142</f>
         <v>Tampa, Florida</v>
       </c>
       <c r="H142" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="I142" t="s">
         <v>6</v>
       </c>
       <c r="J142" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B143" t="s">
+        <v>462</v>
+      </c>
+      <c r="C143" t="s">
         <v>463</v>
       </c>
-      <c r="C143" t="s">
-        <v>464</v>
-      </c>
       <c r="D143" t="s">
+        <v>395</v>
+      </c>
+      <c r="E143" t="s">
         <v>396</v>
-      </c>
-      <c r="E143" t="s">
-        <v>397</v>
       </c>
       <c r="F143" t="s">
         <v>69</v>
       </c>
       <c r="G143" t="str">
-        <f>D143</f>
+        <f t="shared" si="7"/>
         <v>Tampa, Florida</v>
       </c>
       <c r="H143" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="I143" t="s">
         <v>6</v>
       </c>
       <c r="J143" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
@@ -7050,17 +7044,17 @@
         <v>131</v>
       </c>
       <c r="G144" t="str">
-        <f>D144</f>
+        <f t="shared" si="7"/>
         <v>Toronto, Ontario</v>
       </c>
       <c r="H144" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I144" t="s">
         <v>132</v>
       </c>
       <c r="J144" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
@@ -7083,17 +7077,17 @@
         <v>131</v>
       </c>
       <c r="G145" t="str">
-        <f>D145</f>
+        <f t="shared" si="7"/>
         <v>Toronto, Ontario</v>
       </c>
       <c r="H145" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I145" t="s">
         <v>132</v>
       </c>
       <c r="J145" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
@@ -7116,25 +7110,25 @@
         <v>131</v>
       </c>
       <c r="G146" t="str">
-        <f>D146</f>
+        <f t="shared" si="7"/>
         <v>Toronto, Ontario</v>
       </c>
       <c r="H146" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="I146" t="s">
         <v>132</v>
       </c>
       <c r="J146" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B147" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C147" t="s">
         <v>317</v>
@@ -7149,17 +7143,17 @@
         <v>131</v>
       </c>
       <c r="G147" t="str">
-        <f>D147</f>
+        <f t="shared" si="7"/>
         <v>Toronto, Ontario</v>
       </c>
       <c r="H147" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="I147" t="s">
         <v>132</v>
       </c>
       <c r="J147" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
@@ -7182,28 +7176,28 @@
         <v>240</v>
       </c>
       <c r="G148" t="str">
-        <f>D148</f>
+        <f t="shared" si="7"/>
         <v>Vancouver, British Columbia</v>
       </c>
       <c r="H148" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I148" t="s">
         <v>132</v>
       </c>
       <c r="J148" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B149" t="s">
+        <v>465</v>
+      </c>
+      <c r="C149" t="s">
         <v>466</v>
-      </c>
-      <c r="C149" t="s">
-        <v>467</v>
       </c>
       <c r="D149" t="s">
         <v>238</v>
@@ -7215,17 +7209,17 @@
         <v>240</v>
       </c>
       <c r="G149" t="str">
-        <f>D149</f>
+        <f t="shared" si="7"/>
         <v>Vancouver, British Columbia</v>
       </c>
       <c r="H149" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="I149" t="s">
         <v>132</v>
       </c>
       <c r="J149" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
@@ -7248,17 +7242,17 @@
         <v>136</v>
       </c>
       <c r="G150" t="str">
-        <f>D150</f>
+        <f t="shared" si="7"/>
         <v>Washington, D.C.</v>
       </c>
       <c r="H150" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I150" t="s">
         <v>6</v>
       </c>
       <c r="J150" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
@@ -7281,17 +7275,17 @@
         <v>136</v>
       </c>
       <c r="G151" t="str">
-        <f>D151</f>
+        <f t="shared" si="7"/>
         <v>Washington, D.C.</v>
       </c>
       <c r="H151" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I151" t="s">
         <v>6</v>
       </c>
       <c r="J151" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
@@ -7299,10 +7293,10 @@
         <v>241</v>
       </c>
       <c r="B152" t="s">
+        <v>321</v>
+      </c>
+      <c r="C152" t="s">
         <v>322</v>
-      </c>
-      <c r="C152" t="s">
-        <v>323</v>
       </c>
       <c r="D152" t="s">
         <v>135</v>
@@ -7314,34 +7308,34 @@
         <v>136</v>
       </c>
       <c r="G152" t="str">
-        <f>D152</f>
+        <f t="shared" si="7"/>
         <v>Washington, D.C.</v>
       </c>
       <c r="H152" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="I152" t="s">
         <v>6</v>
       </c>
       <c r="J152" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B153" t="s">
+        <v>399</v>
+      </c>
+      <c r="C153" t="s">
         <v>400</v>
       </c>
-      <c r="C153" t="s">
+      <c r="D153" t="s">
         <v>401</v>
       </c>
-      <c r="D153" t="s">
+      <c r="E153" t="s">
         <v>402</v>
-      </c>
-      <c r="E153" t="s">
-        <v>403</v>
       </c>
       <c r="F153" t="s">
         <v>16</v>
@@ -7350,24 +7344,24 @@
         <v>135</v>
       </c>
       <c r="H153" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="I153" t="s">
         <v>6</v>
       </c>
       <c r="J153" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B154" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C154" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D154" t="s">
         <v>135</v>
@@ -7383,46 +7377,46 @@
         <v>Washington, D.C.</v>
       </c>
       <c r="H154" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="I154" t="s">
         <v>6</v>
       </c>
       <c r="J154" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B155" t="s">
+        <v>470</v>
+      </c>
+      <c r="C155" t="s">
         <v>471</v>
       </c>
-      <c r="C155" t="s">
+      <c r="D155" t="s">
         <v>472</v>
       </c>
-      <c r="D155" t="s">
+      <c r="E155" t="s">
         <v>473</v>
       </c>
-      <c r="E155" t="s">
+      <c r="F155" t="s">
         <v>474</v>
-      </c>
-      <c r="F155" t="s">
-        <v>475</v>
       </c>
       <c r="G155" t="str">
         <f>D155</f>
         <v>Winnipeg, Manitoba</v>
       </c>
       <c r="H155" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="I155" t="s">
         <v>132</v>
       </c>
       <c r="J155" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
   </sheetData>
